--- a/center_bounds.xlsx
+++ b/center_bounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programs\z_PROJECTS\MCL Project\Raman-Peak-Fitting-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3227A556-7FDC-4404-87B5-FAA603196541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE337CD1-D9C0-443B-9E88-A73CC4DA56D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3883408C-F2D1-4228-8870-6F9136675442}"/>
   </bookViews>
@@ -51,10 +51,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE7F48C-48A8-46EA-9463-F8EA2DFA80B7}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,36 +429,146 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>152.19900000000001</v>
-      </c>
-      <c r="B2">
-        <v>148.37039999999999</v>
-      </c>
-      <c r="C2">
-        <v>222.5556</v>
+      <c r="A2" s="1">
+        <v>1595.8</v>
+      </c>
+      <c r="B2" s="1">
+        <f>A2-10</f>
+        <v>1585.8</v>
+      </c>
+      <c r="C2" s="1">
+        <f>A2+10</f>
+        <v>1605.8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>430.1798</v>
-      </c>
-      <c r="B3">
-        <v>326.7688</v>
-      </c>
-      <c r="C3">
-        <v>490.15319899999997</v>
+      <c r="A3" s="1">
+        <v>1351.36</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B12" si="0">A3-10</f>
+        <v>1341.36</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C12" si="1">A3+10</f>
+        <v>1361.36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1569.26163</v>
-      </c>
-      <c r="B4">
-        <v>1082.4880000000001</v>
-      </c>
-      <c r="C4">
-        <v>1623.7319</v>
+      <c r="A4" s="1">
+        <v>2691.12</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>2681.12</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="1"/>
+        <v>2701.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1628.02</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1618.02</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>1638.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1495.35</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1485.35</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1505.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1225.49</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1215.49</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>1235.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2482.39</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>2472.39</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>2492.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2940.8</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>2930.8</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>2950.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>3228.2</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>3218.2</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>3238.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>4269.25</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>4259.25</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>4279.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1116.0899999999999</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>1106.0899999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>1126.0899999999999</v>
       </c>
     </row>
   </sheetData>

--- a/center_bounds.xlsx
+++ b/center_bounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programs\z_PROJECTS\MCL Project\Raman-Peak-Fitting-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE337CD1-D9C0-443B-9E88-A73CC4DA56D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F3DD14-3B45-4E3A-9231-E9E17607EB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3883408C-F2D1-4228-8870-6F9136675442}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +62,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,9 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +415,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,14 +476,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>1628.02</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>1618.02</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2">
+        <v>1610</v>
+      </c>
+      <c r="C5" s="2">
         <f t="shared" si="1"/>
         <v>1638.02</v>
       </c>

--- a/center_bounds.xlsx
+++ b/center_bounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programs\z_PROJECTS\MCL Project\Raman-Peak-Fitting-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F3DD14-3B45-4E3A-9231-E9E17607EB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2499B34-A0C3-4F42-94A8-A3D440453A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3883408C-F2D1-4228-8870-6F9136675442}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,14 +61,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,10 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,102 +406,103 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1595.8</v>
+        <v>1116.0899999999999</v>
       </c>
       <c r="B2" s="1">
         <f>A2-10</f>
-        <v>1585.8</v>
+        <v>1106.0899999999999</v>
       </c>
       <c r="C2" s="1">
         <f>A2+10</f>
-        <v>1605.8</v>
+        <v>1126.0899999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1351.36</v>
+        <v>1225.49</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B12" si="0">A3-10</f>
-        <v>1341.36</v>
+        <f>A3-10</f>
+        <v>1215.49</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C12" si="1">A3+10</f>
-        <v>1361.36</v>
+        <f>A3+10</f>
+        <v>1235.49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2691.12</v>
+        <v>1351.36</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" si="0"/>
-        <v>2681.12</v>
+        <f>A4-10</f>
+        <v>1341.36</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="1"/>
-        <v>2701.12</v>
+        <f>A4+10</f>
+        <v>1361.36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
+        <v>1495.35</v>
+      </c>
+      <c r="B5" s="1">
+        <f>A5-10</f>
+        <v>1485.35</v>
+      </c>
+      <c r="C5" s="1">
+        <f>A5+10</f>
+        <v>1505.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1595.8</v>
+      </c>
+      <c r="B6" s="1">
+        <f>A6-10</f>
+        <v>1585.8</v>
+      </c>
+      <c r="C6" s="1">
+        <f>A6+10</f>
+        <v>1605.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>1628.02</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B7" s="1">
         <v>1610</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" si="1"/>
+      <c r="C7" s="1">
+        <f>A7+10</f>
         <v>1638.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1495.35</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>1485.35</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>1505.35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1225.49</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>1215.49</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>1235.49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -518,67 +510,70 @@
         <v>2482.39</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
+        <f>A8-10</f>
         <v>2472.39</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="1"/>
+        <f>A8+10</f>
         <v>2492.39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2940.8</v>
+        <v>2691.12</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>2930.8</v>
+        <f>A9-10</f>
+        <v>2681.12</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="1"/>
-        <v>2950.8</v>
+        <f>A9+10</f>
+        <v>2701.12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3228.2</v>
+        <v>2940.8</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>3218.2</v>
+        <f>A10-10</f>
+        <v>2930.8</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="1"/>
-        <v>3238.2</v>
+        <f>A10+10</f>
+        <v>2950.8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>4269.25</v>
+        <v>3228.2</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>4259.25</v>
+        <f>A11-10</f>
+        <v>3218.2</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="1"/>
-        <v>4279.25</v>
+        <f>A11+10</f>
+        <v>3238.2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1116.0899999999999</v>
+        <v>4269.25</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>1106.0899999999999</v>
+        <f>A12-10</f>
+        <v>4259.25</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="1"/>
-        <v>1126.0899999999999</v>
+        <f>A12+10</f>
+        <v>4279.25</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/center_bounds.xlsx
+++ b/center_bounds.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programs\z_PROJECTS\MCL Project\Raman-Peak-Fitting-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2499B34-A0C3-4F42-94A8-A3D440453A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8EA0FA-D885-401C-ACDA-14341FB584E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3883408C-F2D1-4228-8870-6F9136675442}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,7 @@
         <v>1106.0899999999999</v>
       </c>
       <c r="C2" s="1">
-        <f>A2+10</f>
+        <f t="shared" ref="C2:C12" si="0">A2+10</f>
         <v>1126.0899999999999</v>
       </c>
     </row>
@@ -450,7 +450,7 @@
         <v>1215.49</v>
       </c>
       <c r="C3" s="1">
-        <f>A3+10</f>
+        <f t="shared" si="0"/>
         <v>1235.49</v>
       </c>
     </row>
@@ -463,7 +463,7 @@
         <v>1341.36</v>
       </c>
       <c r="C4" s="1">
-        <f>A4+10</f>
+        <f t="shared" si="0"/>
         <v>1361.36</v>
       </c>
     </row>
@@ -476,7 +476,7 @@
         <v>1485.35</v>
       </c>
       <c r="C5" s="1">
-        <f>A5+10</f>
+        <f t="shared" si="0"/>
         <v>1505.35</v>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <v>1585.8</v>
       </c>
       <c r="C6" s="1">
-        <f>A6+10</f>
+        <f t="shared" si="0"/>
         <v>1605.8</v>
       </c>
     </row>
@@ -501,7 +501,7 @@
         <v>1610</v>
       </c>
       <c r="C7" s="1">
-        <f>A7+10</f>
+        <f t="shared" si="0"/>
         <v>1638.02</v>
       </c>
     </row>
@@ -514,7 +514,7 @@
         <v>2472.39</v>
       </c>
       <c r="C8" s="1">
-        <f>A8+10</f>
+        <f t="shared" si="0"/>
         <v>2492.39</v>
       </c>
     </row>
@@ -527,7 +527,7 @@
         <v>2681.12</v>
       </c>
       <c r="C9" s="1">
-        <f>A9+10</f>
+        <f t="shared" si="0"/>
         <v>2701.12</v>
       </c>
     </row>
@@ -540,7 +540,7 @@
         <v>2930.8</v>
       </c>
       <c r="C10" s="1">
-        <f>A10+10</f>
+        <f t="shared" si="0"/>
         <v>2950.8</v>
       </c>
     </row>
@@ -553,7 +553,7 @@
         <v>3218.2</v>
       </c>
       <c r="C11" s="1">
-        <f>A11+10</f>
+        <f t="shared" si="0"/>
         <v>3238.2</v>
       </c>
     </row>
@@ -566,7 +566,7 @@
         <v>4259.25</v>
       </c>
       <c r="C12" s="1">
-        <f>A12+10</f>
+        <f t="shared" si="0"/>
         <v>4279.25</v>
       </c>
     </row>

--- a/center_bounds.xlsx
+++ b/center_bounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programs\z_PROJECTS\MCL Project\Raman-Peak-Fitting-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8EA0FA-D885-401C-ACDA-14341FB584E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A792BF-E299-42E8-8A65-5167D0390F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3883408C-F2D1-4228-8870-6F9136675442}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Center Min</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>Peak Index</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Voigt</t>
+  </si>
+  <si>
+    <t>Lorentzian</t>
+  </si>
+  <si>
+    <t>Gaussian</t>
   </si>
 </sst>
 </file>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE7F48C-48A8-46EA-9463-F8EA2DFA80B7}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,10 +426,11 @@
     <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -427,8 +440,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1116.0899999999999</v>
       </c>
@@ -440,8 +456,11 @@
         <f t="shared" ref="C2:C12" si="0">A2+10</f>
         <v>1126.0899999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1225.49</v>
       </c>
@@ -453,8 +472,11 @@
         <f t="shared" si="0"/>
         <v>1235.49</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1351.36</v>
       </c>
@@ -466,8 +488,11 @@
         <f t="shared" si="0"/>
         <v>1361.36</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1495.35</v>
       </c>
@@ -479,8 +504,11 @@
         <f t="shared" si="0"/>
         <v>1505.35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1595.8</v>
       </c>
@@ -492,8 +520,11 @@
         <f t="shared" si="0"/>
         <v>1605.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1628.02</v>
       </c>
@@ -504,8 +535,11 @@
         <f t="shared" si="0"/>
         <v>1638.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2482.39</v>
       </c>
@@ -517,8 +551,11 @@
         <f t="shared" si="0"/>
         <v>2492.39</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2691.12</v>
       </c>
@@ -530,8 +567,11 @@
         <f t="shared" si="0"/>
         <v>2701.12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2940.8</v>
       </c>
@@ -543,8 +583,11 @@
         <f t="shared" si="0"/>
         <v>2950.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3228.2</v>
       </c>
@@ -556,8 +599,11 @@
         <f t="shared" si="0"/>
         <v>3238.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4269.25</v>
       </c>
@@ -568,6 +614,9 @@
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>4279.25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
